--- a/DOCS/Planilha Financeira de Custos (1).xlsx
+++ b/DOCS/Planilha Financeira de Custos (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0 - CONFIG" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="4 - CT" sheetId="5" r:id="rId5"/>
     <sheet name="5 - CG" sheetId="7" r:id="rId6"/>
     <sheet name="6 - PF" sheetId="8" r:id="rId7"/>
+    <sheet name="7 - IT" sheetId="10" r:id="rId8"/>
+    <sheet name="8 - DRE" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="ISS">'0 - CONFIG'!$B$2</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>IPTU</t>
   </si>
@@ -201,16 +203,47 @@
   </si>
   <si>
     <t>investimento total/lucro liquido</t>
+  </si>
+  <si>
+    <t>INVESTIMENTO TOTAL</t>
+  </si>
+  <si>
+    <t>DRE</t>
+  </si>
+  <si>
+    <t>FATURAMENTO</t>
+  </si>
+  <si>
+    <t>CUSTO VARIÁVEL</t>
+  </si>
+  <si>
+    <t>MARGEM C.</t>
+  </si>
+  <si>
+    <t>CUSTO FIXO</t>
+  </si>
+  <si>
+    <t>LUCRO LIQUIDO</t>
+  </si>
+  <si>
+    <t>INDICADOR FINANCEIRO</t>
+  </si>
+  <si>
+    <t>CALCULO DE LUCRATIVIDADE</t>
+  </si>
+  <si>
+    <t>PERCENTUAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,8 +276,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,8 +296,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -281,12 +332,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -302,6 +390,36 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -711,7 +829,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1193,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1543,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1719,6 +1837,15 @@
         <v>43</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>(TOTAL_CG)</f>
+        <v>91950</v>
+      </c>
+      <c r="D21">
+        <v>57650</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -1731,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1977,4 +2104,195 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="18">
+        <v>57650</v>
+      </c>
+      <c r="C4" s="18">
+        <v>91950</v>
+      </c>
+      <c r="D4" s="18">
+        <f>SUM(B4+C4)</f>
+        <v>149600</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>16200</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24">
+        <f>(B23/C23)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B19:D19"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>